--- a/FinalProject/restaurants_cleaned.xlsx
+++ b/FinalProject/restaurants_cleaned.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catherinelamoreaux/Documents/Grad School/Fundamentals of Computing and Data Display/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sungjoocho/Desktop/UMD/Fall2023/SURV727/Group_assignment/cho-lamoreaux-a1/FinalProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9862CDD1-038A-7941-8A5A-E13F78F609C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00628B15-FCE9-B442-B13D-7AF0B0260907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="473">
   <si>
     <t>ranking</t>
   </si>
@@ -1443,9 +1443,6 @@
   </si>
   <si>
     <t>price_avg</t>
-  </si>
-  <si>
-    <t>NA</t>
   </si>
   <si>
     <t>google_user_rating_total</t>
@@ -1793,10 +1790,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
@@ -1859,7 +1859,7 @@
         <v>5</v>
       </c>
       <c r="R1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
@@ -2056,9 +2056,6 @@
         <f t="shared" si="0"/>
         <v>4.9000000000000004</v>
       </c>
-      <c r="P5" t="s">
-        <v>469</v>
-      </c>
       <c r="Q5" t="s">
         <v>28</v>
       </c>
@@ -2257,9 +2254,6 @@
         <f t="shared" si="0"/>
         <v>4.5999999999999996</v>
       </c>
-      <c r="P9" t="s">
-        <v>469</v>
-      </c>
       <c r="Q9" t="s">
         <v>50</v>
       </c>
@@ -2360,9 +2354,6 @@
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="P11" t="s">
-        <v>469</v>
-      </c>
       <c r="Q11" t="s">
         <v>61</v>
       </c>
@@ -2463,9 +2454,6 @@
         <f t="shared" si="0"/>
         <v>4.4000000000000004</v>
       </c>
-      <c r="P13" t="s">
-        <v>469</v>
-      </c>
       <c r="Q13" t="s">
         <v>73</v>
       </c>
@@ -3097,7 +3085,7 @@
         <v>3</v>
       </c>
       <c r="Q25" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="R25">
         <v>6070</v>
@@ -3138,9 +3126,6 @@
         <f t="shared" si="0"/>
         <v>4.4000000000000004</v>
       </c>
-      <c r="P26" t="s">
-        <v>469</v>
-      </c>
       <c r="Q26" t="s">
         <v>142</v>
       </c>
@@ -3177,9 +3162,6 @@
         <f t="shared" si="0"/>
         <v>4.4000000000000004</v>
       </c>
-      <c r="P27" t="s">
-        <v>469</v>
-      </c>
       <c r="Q27" t="s">
         <v>458</v>
       </c>
@@ -3311,9 +3293,6 @@
         <f t="shared" si="0"/>
         <v>3.95</v>
       </c>
-      <c r="P30" t="s">
-        <v>469</v>
-      </c>
       <c r="Q30" t="s">
         <v>157</v>
       </c>
@@ -3604,9 +3583,6 @@
         <f t="shared" si="0"/>
         <v>4.1500000000000004</v>
       </c>
-      <c r="P36" t="s">
-        <v>469</v>
-      </c>
       <c r="Q36" t="s">
         <v>185</v>
       </c>
@@ -3646,9 +3622,6 @@
         <f t="shared" si="0"/>
         <v>4.5999999999999996</v>
       </c>
-      <c r="P37" t="s">
-        <v>469</v>
-      </c>
       <c r="Q37" t="s">
         <v>190</v>
       </c>
@@ -3743,9 +3716,6 @@
         <f t="shared" si="0"/>
         <v>4.5999999999999996</v>
       </c>
-      <c r="P39" t="s">
-        <v>469</v>
-      </c>
       <c r="Q39" t="s">
         <v>198</v>
       </c>
@@ -4421,11 +4391,8 @@
         <f t="shared" si="0"/>
         <v>4.9000000000000004</v>
       </c>
-      <c r="P52" t="s">
-        <v>469</v>
-      </c>
       <c r="Q52" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="R52">
         <v>74</v>
@@ -4463,9 +4430,6 @@
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="P53" t="s">
-        <v>469</v>
-      </c>
       <c r="Q53" t="s">
         <v>256</v>
       </c>
@@ -4661,9 +4625,6 @@
         <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
-      <c r="P57" t="s">
-        <v>469</v>
-      </c>
       <c r="Q57" t="s">
         <v>270</v>
       </c>
@@ -4902,9 +4863,6 @@
         <f t="shared" si="0"/>
         <v>4.4000000000000004</v>
       </c>
-      <c r="P62" t="s">
-        <v>469</v>
-      </c>
       <c r="Q62" t="s">
         <v>290</v>
       </c>
@@ -5296,9 +5254,6 @@
         <f t="shared" si="2"/>
         <v>4.5999999999999996</v>
       </c>
-      <c r="P70" t="s">
-        <v>469</v>
-      </c>
       <c r="Q70" t="s">
         <v>327</v>
       </c>
@@ -5439,9 +5394,6 @@
         <f t="shared" si="2"/>
         <v>4.2</v>
       </c>
-      <c r="P73" t="s">
-        <v>469</v>
-      </c>
       <c r="Q73" t="s">
         <v>339</v>
       </c>
@@ -5680,9 +5632,6 @@
         <f t="shared" si="2"/>
         <v>4.3</v>
       </c>
-      <c r="P78" t="s">
-        <v>469</v>
-      </c>
       <c r="Q78" t="s">
         <v>357</v>
       </c>
@@ -6195,7 +6144,7 @@
         <v>3</v>
       </c>
       <c r="Q88" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="R88">
         <v>1654</v>
@@ -6377,9 +6326,6 @@
         <f t="shared" si="2"/>
         <v>3.8</v>
       </c>
-      <c r="P92" t="s">
-        <v>469</v>
-      </c>
       <c r="Q92" t="s">
         <v>412</v>
       </c>
@@ -6419,9 +6365,6 @@
         <f t="shared" si="2"/>
         <v>4.2</v>
       </c>
-      <c r="P93" t="s">
-        <v>469</v>
-      </c>
       <c r="Q93" t="s">
         <v>416</v>
       </c>
@@ -6510,9 +6453,6 @@
         <f t="shared" si="2"/>
         <v>4.55</v>
       </c>
-      <c r="P95" t="s">
-        <v>469</v>
-      </c>
       <c r="Q95" t="s">
         <v>423</v>
       </c>
@@ -6750,9 +6690,6 @@
       <c r="O100">
         <f t="shared" si="2"/>
         <v>4.9000000000000004</v>
-      </c>
-      <c r="P100" t="s">
-        <v>469</v>
       </c>
       <c r="Q100" t="s">
         <v>444</v>
